--- a/NPC Attributes.xlsx
+++ b/NPC Attributes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Farming</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Warrior</t>
+  </si>
+  <si>
+    <t>Attribute</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +570,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
